--- a/SonarExcel/SonarQube_2019-01-29.xlsx
+++ b/SonarExcel/SonarQube_2019-01-29.xlsx
@@ -529,10 +529,10 @@
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -648,7 +648,7 @@
         <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>7</v>
@@ -699,7 +699,7 @@
         <v>40</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>7</v>
@@ -735,8 +735,8 @@
       <c r="D24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>20</v>
+      <c r="E24" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25">

--- a/SonarExcel/SonarQube_2019-01-29.xlsx
+++ b/SonarExcel/SonarQube_2019-01-29.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="64">
   <si>
     <t>NO</t>
   </si>
@@ -32,181 +32,178 @@
     <t>APIs</t>
   </si>
   <si>
+    <t>Auditing</t>
+  </si>
+  <si>
+    <t>97.60%</t>
+  </si>
+  <si>
+    <t>Lottery Validations</t>
+  </si>
+  <si>
+    <t>72.40%</t>
+  </si>
+  <si>
+    <t>70.80%</t>
+  </si>
+  <si>
+    <t>Users Operators</t>
+  </si>
+  <si>
+    <t>Auth UI</t>
+  </si>
+  <si>
+    <t>70.00%</t>
+  </si>
+  <si>
+    <t>69.00%</t>
+  </si>
+  <si>
+    <t>Promotion Engine UI</t>
+  </si>
+  <si>
+    <t>66.40%</t>
+  </si>
+  <si>
+    <t>Winning Certificates UI</t>
+  </si>
+  <si>
+    <t>49.00%</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>49.70%</t>
+  </si>
+  <si>
+    <t>48.40%</t>
+  </si>
+  <si>
+    <t>ATS Service</t>
+  </si>
+  <si>
+    <t>44.50%</t>
+  </si>
+  <si>
+    <t>Game Management Service</t>
+  </si>
+  <si>
+    <t>39.10%</t>
+  </si>
+  <si>
+    <t>30.00%</t>
+  </si>
+  <si>
+    <t>Messaging</t>
+  </si>
+  <si>
+    <t>23.60%</t>
+  </si>
+  <si>
+    <t>Alerting</t>
+  </si>
+  <si>
+    <t>19.20%</t>
+  </si>
+  <si>
+    <t>Promotion Engine</t>
+  </si>
+  <si>
+    <t>18.90%</t>
+  </si>
+  <si>
+    <t>EJK Adaptor</t>
+  </si>
+  <si>
+    <t>15.20%</t>
+  </si>
+  <si>
+    <t>IGMS Service</t>
+  </si>
+  <si>
+    <t>10.40%</t>
+  </si>
+  <si>
+    <t>Messaging UI</t>
+  </si>
+  <si>
+    <t>4.00%</t>
+  </si>
+  <si>
+    <t>Alerting UI</t>
+  </si>
+  <si>
+    <t>1.20%</t>
+  </si>
+  <si>
+    <t>Lottery UI</t>
+  </si>
+  <si>
+    <t>0.70%</t>
+  </si>
+  <si>
+    <t>IGMS UI</t>
+  </si>
+  <si>
+    <t>0.30%</t>
+  </si>
+  <si>
+    <t>Fraud</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>Lottery Risk Management</t>
+  </si>
+  <si>
+    <t>Game Scheduler</t>
+  </si>
+  <si>
     <t>API Gateway J</t>
   </si>
   <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>ATS Service</t>
-  </si>
-  <si>
-    <t>44.50%</t>
-  </si>
-  <si>
-    <t>Users Operators</t>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Terminal Transactions UI</t>
   </si>
   <si>
     <t>ATS UI</t>
   </si>
   <si>
-    <t>Accounting</t>
-  </si>
-  <si>
-    <t>Alerting</t>
-  </si>
-  <si>
-    <t>19.20%</t>
-  </si>
-  <si>
-    <t>Alerting UI</t>
-  </si>
-  <si>
-    <t>1.20%</t>
-  </si>
-  <si>
-    <t>Auditing</t>
-  </si>
-  <si>
-    <t>97.60%</t>
+    <t>Cluster Management UI</t>
+  </si>
+  <si>
+    <t>Information Store</t>
+  </si>
+  <si>
+    <t>Auth</t>
+  </si>
+  <si>
+    <t>Terminals &amp; Users</t>
+  </si>
+  <si>
+    <t>Terminal Adaptor</t>
+  </si>
+  <si>
+    <t>Fraud UI</t>
+  </si>
+  <si>
+    <t>No Coverage</t>
+  </si>
+  <si>
+    <t>DMS UI</t>
+  </si>
+  <si>
+    <t>Pulse UI</t>
+  </si>
+  <si>
+    <t>DMS</t>
   </si>
   <si>
     <t>Auditing UI</t>
-  </si>
-  <si>
-    <t>No Coverage</t>
-  </si>
-  <si>
-    <t>Auth</t>
-  </si>
-  <si>
-    <t>Auth UI</t>
-  </si>
-  <si>
-    <t>70.00%</t>
-  </si>
-  <si>
-    <t>69.00%</t>
-  </si>
-  <si>
-    <t>Cluster Management UI</t>
-  </si>
-  <si>
-    <t>DMS</t>
-  </si>
-  <si>
-    <t>DMS UI</t>
-  </si>
-  <si>
-    <t>EJK Adaptor</t>
-  </si>
-  <si>
-    <t>15.20%</t>
-  </si>
-  <si>
-    <t>Fraud</t>
-  </si>
-  <si>
-    <t>Fraud UI</t>
-  </si>
-  <si>
-    <t>Game Management Service</t>
-  </si>
-  <si>
-    <t>39.10%</t>
-  </si>
-  <si>
-    <t>30.00%</t>
-  </si>
-  <si>
-    <t>Game Scheduler</t>
-  </si>
-  <si>
-    <t>IGMS Service</t>
-  </si>
-  <si>
-    <t>10.40%</t>
-  </si>
-  <si>
-    <t>IGMS UI</t>
-  </si>
-  <si>
-    <t>0.30%</t>
-  </si>
-  <si>
-    <t>Information Store</t>
-  </si>
-  <si>
-    <t>Lottery Risk Management</t>
-  </si>
-  <si>
-    <t>Lottery UI</t>
-  </si>
-  <si>
-    <t>0.70%</t>
-  </si>
-  <si>
-    <t>Lottery Validations</t>
-  </si>
-  <si>
-    <t>72.40%</t>
-  </si>
-  <si>
-    <t>70.80%</t>
-  </si>
-  <si>
-    <t>Messaging</t>
-  </si>
-  <si>
-    <t>23.60%</t>
-  </si>
-  <si>
-    <t>Messaging UI</t>
-  </si>
-  <si>
-    <t>4.00%</t>
-  </si>
-  <si>
-    <t>NAM</t>
-  </si>
-  <si>
-    <t>49.70%</t>
-  </si>
-  <si>
-    <t>48.40%</t>
-  </si>
-  <si>
-    <t>Promotion Engine</t>
-  </si>
-  <si>
-    <t>18.90%</t>
-  </si>
-  <si>
-    <t>Promotion Engine UI</t>
-  </si>
-  <si>
-    <t>66.40%</t>
-  </si>
-  <si>
-    <t>Pulse UI</t>
-  </si>
-  <si>
-    <t>Terminals &amp; Users</t>
-  </si>
-  <si>
-    <t>Terminal Adaptor</t>
-  </si>
-  <si>
-    <t>Terminal Transactions UI</t>
-  </si>
-  <si>
-    <t>Winning Certificates UI</t>
-  </si>
-  <si>
-    <t>48.00%</t>
-  </si>
-  <si>
-    <t>49.00%</t>
   </si>
 </sst>
 </file>
@@ -378,8 +375,8 @@
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -387,16 +384,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -404,16 +401,16 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -421,16 +418,16 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -438,16 +435,16 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -458,13 +455,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -472,16 +469,16 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -492,13 +489,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -506,16 +503,16 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -523,16 +520,16 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -543,13 +540,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -557,16 +554,16 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -574,16 +571,16 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
@@ -591,16 +588,16 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -608,16 +605,16 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
@@ -625,16 +622,16 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -645,13 +642,13 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
@@ -662,13 +659,13 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
@@ -676,16 +673,16 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -696,13 +693,13 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
@@ -713,13 +710,13 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
@@ -727,16 +724,16 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
@@ -744,15 +741,15 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -761,16 +758,16 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
@@ -778,16 +775,16 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28">
@@ -798,13 +795,13 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="29">
@@ -812,16 +809,16 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
@@ -829,16 +826,16 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="31">
@@ -846,16 +843,16 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
@@ -863,16 +860,16 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33">
@@ -880,16 +877,16 @@
         <v>32.0</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34">
@@ -897,16 +894,16 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/SonarExcel/SonarQube_2019-01-29.xlsx
+++ b/SonarExcel/SonarQube_2019-01-29.xlsx
@@ -211,7 +211,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -241,8 +241,14 @@
       <color indexed="8"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +285,16 @@
         <fgColor indexed="11"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -292,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left"/>
@@ -304,6 +320,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -329,19 +348,19 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -831,10 +850,10 @@
       <c r="C30" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -848,10 +867,10 @@
       <c r="C31" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -865,10 +884,10 @@
       <c r="C32" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -882,10 +901,10 @@
       <c r="C33" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -899,10 +918,10 @@
       <c r="C34" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="5" t="s">
         <v>59</v>
       </c>
     </row>

--- a/SonarExcel/SonarQube_2019-01-29.xlsx
+++ b/SonarExcel/SonarQube_2019-01-29.xlsx
@@ -248,7 +248,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +293,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
       </patternFill>
     </fill>
   </fills>
@@ -325,7 +335,7 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
